--- a/src/test/resources/testKookMinUpload2.xlsx
+++ b/src/test/resources/testKookMinUpload2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박재학\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880E3C33-3686-4E75-B33A-74ECC2D2AED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF535434-25BA-45D0-B741-2FFC04A8520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,178 +20,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>조회기간</t>
   </si>
   <si>
-    <t>2023.12.27 ~ 2024.03.27</t>
-  </si>
-  <si>
     <t>계좌번호</t>
   </si>
   <si>
-    <t>943202-00-487566</t>
-  </si>
-  <si>
     <t>총잔액</t>
   </si>
   <si>
     <t>예금종류</t>
   </si>
   <si>
+    <t>출금가능금액</t>
+  </si>
+  <si>
+    <t>거래일시</t>
+  </si>
+  <si>
+    <t>적요</t>
+  </si>
+  <si>
+    <t>보낸분/받는분</t>
+  </si>
+  <si>
+    <t>송금메모</t>
+  </si>
+  <si>
+    <t>출금액</t>
+  </si>
+  <si>
+    <t>입금액</t>
+  </si>
+  <si>
+    <t>잔액</t>
+  </si>
+  <si>
+    <t>거래점</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t> 　</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>########</t>
+  </si>
+  <si>
+    <t>case2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>case3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>case1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.05.19 10:54:09</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.05.20 10:54:09</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.05.18 20:37:08</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t> 기타</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.05.21 10:54:09</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>case4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>case 1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>case 2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>case5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 3</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 6</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>case 4</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>case 5</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 7</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생1~3는 납부데이터 및 학생데이터 모두 존재하며 자동납부처리가 처음부터 가능한 케이스</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생4는 납부데이터에는 존재하지만 학생데이터에는 존재하지 않아 미확인 내역 조회를 통해서만 확인가능. 미납입한 학생조회를 통해 확인하지 못하기 때문에 수동처리를 할 수 없는 상태.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생5는 학생데이터에는 존재하지만 납부데이터에는 존재하지 않는 상태. 미납부한 학생조회를 통해 확인가능하기 때문에 수동처리 가능.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생6은 동명이인으로 최초 엑셀 업로드 시에는 자동납부처리가 불가능. 따라서 첫달에는 수동처리를 통해 결제키를 생성 등록하여 그 다음달부터 자동납부처리가능.</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000-00-00000</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
     <t>ＫＢ나라사랑우대통장</t>
-  </si>
-  <si>
-    <t>출금가능금액</t>
-  </si>
-  <si>
-    <t>거래일시</t>
-  </si>
-  <si>
-    <t>적요</t>
-  </si>
-  <si>
-    <t>보낸분/받는분</t>
-  </si>
-  <si>
-    <t>송금메모</t>
-  </si>
-  <si>
-    <t>출금액</t>
-  </si>
-  <si>
-    <t>입금액</t>
-  </si>
-  <si>
-    <t>잔액</t>
-  </si>
-  <si>
-    <t>거래점</t>
-  </si>
-  <si>
-    <t>구분</t>
-  </si>
-  <si>
-    <t> 　</t>
-  </si>
-  <si>
-    <t>합계</t>
-  </si>
-  <si>
-    <t>########</t>
-  </si>
-  <si>
-    <t>case2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>case3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>case1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.05.19 10:54:09</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.05.20 10:54:09</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.05.18 20:37:08</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t> 기타</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.05.21 10:54:09</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>case4</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제키</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>동명이인 x, 지정된 입금액, 학생이름 납부한 경우</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 4</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 5</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 6</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>case 1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>case 2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>case 3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생데이터에 존재하는 입금자명이지만 납부금액이 학원비와 일치하지 않는 경우</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>동명이인</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생데이터에 존재하지 않는 입금자명일 경우</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금자명, 학생전화번호 끝자리, 입금액, 결제방식</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동 0000 300000 계좌이체</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>case5</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금내역 현금결제일 경우 수동처리</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 20</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.05.01 ~ 2024.05.31</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생7은 학원비보다 낮은 입금금액을 입금하였을 경우로 미확인내역에서 조회할 수 있도록 처리</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제키 = 입금자명 + 학생전화번호 끝자리 + 입금액 + 결제방식</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 학생이름 0000 300000 계좌이체</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -201,10 +200,17 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,###"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -769,190 +775,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1329,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1353,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -1365,15 +1374,15 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16"/>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="17">
         <v>0</v>
@@ -1381,24 +1390,22 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="19"/>
-      <c r="K2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>43</v>
+      <c r="K2" s="11"/>
+      <c r="L2" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16"/>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="17">
         <v>0</v>
@@ -1406,8 +1413,8 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="19"/>
-      <c r="L3" s="12" t="s">
-        <v>44</v>
+      <c r="L3" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1423,48 +1430,48 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9">
@@ -1477,27 +1484,27 @@
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>40</v>
+      <c r="L6" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="9">
@@ -1510,25 +1517,25 @@
         <v>0</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7"/>
       <c r="K7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="9">
@@ -1541,25 +1548,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I8" s="7"/>
       <c r="K8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="9">
@@ -1572,109 +1579,117 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="9">
         <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1685,7 +1700,7 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>